--- a/biology/Zoologie/Cynips/Cynips.xlsx
+++ b/biology/Zoologie/Cynips/Cynips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynips est un genre d'insectes hyménoptères de la famille des Cynipidae présents dans toute l'Europe. Les piqûres des Cynips dans les végétaux provoquent des galles.
 Les espèces communément appelées Cynips du châtaignier (Dryocosmus kuriphilus) et Cynips du rosier (Diplolepis rosae) appartiennent à d'autres genres de la même famille.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cynips ont un thorax épais et bosselé et un abdomen court. Les ailes ne sont pas veinées. Les pattes se composent de 14 à 15 segments.
 </t>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynips agama
 Cynips cornifex
